--- a/_Hard/Recap_ports_mosfets.xlsx
+++ b/_Hard/Recap_ports_mosfets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Mosfet number</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>pompe Pendulum</t>
+  </si>
+  <si>
+    <t>Slot Big</t>
+  </si>
+  <si>
+    <t>Slot Small</t>
   </si>
 </sst>
 </file>
@@ -236,20 +242,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -267,13 +283,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E18"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:G19"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Mosfet number"/>
-    <tableColumn id="2" name="Port Big"/>
+    <tableColumn id="6" name="Port Big" dataDxfId="3"/>
+    <tableColumn id="2" name="Slot Big" dataDxfId="2"/>
     <tableColumn id="3" name="Actionneur Big"/>
-    <tableColumn id="4" name="Port Small"/>
+    <tableColumn id="4" name="Port Small" dataDxfId="1"/>
+    <tableColumn id="7" name="Slot Small" dataDxfId="0"/>
     <tableColumn id="5" name="Actionneur Small"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -543,22 +561,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="1" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,301 +585,366 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
+      <c r="C2" s="1">
+        <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Hard/Recap_ports_mosfets.xlsx
+++ b/_Hard/Recap_ports_mosfets.xlsx
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/_Hard/Recap_ports_mosfets.xlsx
+++ b/_Hard/Recap_ports_mosfets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>Mosfet number</t>
   </si>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>Slot Small</t>
+  </si>
+  <si>
+    <t>Mosfet en strat</t>
+  </si>
+  <si>
+    <t>MOSFET_1</t>
+  </si>
+  <si>
+    <t>MOSFET_0</t>
+  </si>
+  <si>
+    <t>MOSFET_3</t>
+  </si>
+  <si>
+    <t>MOSFET_2</t>
+  </si>
+  <si>
+    <t>MOSFET_4</t>
   </si>
 </sst>
 </file>
@@ -253,7 +271,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -283,15 +304,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:G19"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H19" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:H19"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Mosfet number"/>
-    <tableColumn id="6" name="Port Big" dataDxfId="3"/>
-    <tableColumn id="2" name="Slot Big" dataDxfId="2"/>
+    <tableColumn id="6" name="Port Big" dataDxfId="4"/>
+    <tableColumn id="8" name="Mosfet en strat" dataDxfId="0"/>
+    <tableColumn id="2" name="Slot Big" dataDxfId="3"/>
     <tableColumn id="3" name="Actionneur Big"/>
-    <tableColumn id="4" name="Port Small" dataDxfId="1"/>
-    <tableColumn id="7" name="Slot Small" dataDxfId="0"/>
+    <tableColumn id="4" name="Port Small" dataDxfId="2"/>
+    <tableColumn id="7" name="Slot Small" dataDxfId="1"/>
     <tableColumn id="5" name="Actionneur Small"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -561,23 +583,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="1" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,305 +607,332 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1">
         <v>6</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -891,18 +940,19 @@
         <v>17</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -910,18 +960,19 @@
         <v>17</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -929,22 +980,24 @@
         <v>17</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_Hard/Recap_ports_mosfets.xlsx
+++ b/_Hard/Recap_ports_mosfets.xlsx
@@ -309,11 +309,11 @@
   <tableColumns count="8">
     <tableColumn id="1" name="Mosfet number"/>
     <tableColumn id="6" name="Port Big" dataDxfId="4"/>
-    <tableColumn id="8" name="Mosfet en strat" dataDxfId="0"/>
-    <tableColumn id="2" name="Slot Big" dataDxfId="3"/>
+    <tableColumn id="8" name="Mosfet en strat" dataDxfId="3"/>
+    <tableColumn id="2" name="Slot Big" dataDxfId="2"/>
     <tableColumn id="3" name="Actionneur Big"/>
-    <tableColumn id="4" name="Port Small" dataDxfId="2"/>
-    <tableColumn id="7" name="Slot Small" dataDxfId="1"/>
+    <tableColumn id="4" name="Port Small" dataDxfId="1"/>
+    <tableColumn id="7" name="Slot Small" dataDxfId="0"/>
     <tableColumn id="5" name="Actionneur Small"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
@@ -922,7 +922,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
